--- a/docs/data_for_report_2022/table 12 - mus2022_region_name_vs_pop22.xlsx
+++ b/docs/data_for_report_2022/table 12 - mus2022_region_name_vs_pop22.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaballatore/Dropbox/DRBX_Docs/Work/Projects/github_projects/mapping-museums/docs/data_for_report_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3FD4F2-178C-4D4D-AE6B-DEE0027806BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF625C4-3C53-D44E-BEA9-22D65AEEC73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6160" yWindow="2020" windowWidth="18100" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="museums vs pop" sheetId="1" r:id="rId1"/>
-    <sheet name="pop data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="museums vs pop 2022" sheetId="5" r:id="rId1"/>
+    <sheet name="museums vs pop 2017" sheetId="1" r:id="rId2"/>
+    <sheet name="pop data" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'museums vs pop'!$A$1:$E$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$J$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$J$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'museums vs pop 2017'!$A$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'museums vs pop 2022'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet2!$A$1:$J$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>Scotland</t>
   </si>
@@ -224,6 +226,30 @@
   </si>
   <si>
     <t>Population based on Census 2021</t>
+  </si>
+  <si>
+    <t>n_museums_1960</t>
+  </si>
+  <si>
+    <t>museums60_per_100kpop</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/census/2011census/2011censusdata/censusdata18011991</t>
+  </si>
+  <si>
+    <t>Population for 1960</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/populationandmigration/populationestimates/adhocs/004356ukpopulationestimates1851to2014</t>
+  </si>
+  <si>
+    <t>change_diff</t>
+  </si>
+  <si>
+    <t>change_pc</t>
+  </si>
+  <si>
+    <t>DATA N.A.</t>
   </si>
 </sst>
 </file>
@@ -261,7 +287,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +297,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,6 +340,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -640,11 +687,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A960621-45B6-8A40-AE6D-19A447E9CB54}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>852.4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43150000</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(B2/C2*100000,$E$20)</f>
+        <v>1.98</v>
+      </c>
+      <c r="E2">
+        <v>2525</v>
+      </c>
+      <c r="F2" s="3">
+        <v>56489800</v>
+      </c>
+      <c r="G2">
+        <f>ROUND(E2/F2*100000,$E$20)</f>
+        <v>4.47</v>
+      </c>
+      <c r="H2">
+        <f>G2-D2</f>
+        <v>2.4899999999999998</v>
+      </c>
+      <c r="I2">
+        <f>ROUND((G2-D2)/D2*100,1)</f>
+        <v>125.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>12.7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1430000</v>
+      </c>
+      <c r="D3">
+        <f>ROUND(B3/C3*100000,$E$20)</f>
+        <v>0.89</v>
+      </c>
+      <c r="E3">
+        <v>93</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1903100</v>
+      </c>
+      <c r="G3">
+        <f>ROUND(E3/F3*100000,$E$20)</f>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H3">
+        <f>G3-D3</f>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="I3">
+        <f>ROUND((G3-D3)/D3*100,1)</f>
+        <v>449.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>135.9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5179000</v>
+      </c>
+      <c r="D4">
+        <f>ROUND(B4/C4*100000,$E$20)</f>
+        <v>2.62</v>
+      </c>
+      <c r="E4">
+        <v>507</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5479900</v>
+      </c>
+      <c r="G4">
+        <f>ROUND(E4/F4*100000,$E$20)</f>
+        <v>9.25</v>
+      </c>
+      <c r="H4">
+        <f>G4-D4</f>
+        <v>6.63</v>
+      </c>
+      <c r="I4">
+        <f>ROUND((G4-D4)/D4*100,1)</f>
+        <v>253.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>42.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2650000</v>
+      </c>
+      <c r="D5">
+        <f>ROUND(B5/C5*100000,$E$20)</f>
+        <v>1.59</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3107500</v>
+      </c>
+      <c r="G5">
+        <f>ROUND(E5/F5*100000,$E$20)</f>
+        <v>6.44</v>
+      </c>
+      <c r="H5">
+        <f>G5-D5</f>
+        <v>4.8500000000000005</v>
+      </c>
+      <c r="I5">
+        <f>ROUND((G5-D5)/D5*100,1)</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>50.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>229</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4880200</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G15" si="0">ROUND(E7/F7*100000,$E$20)</f>
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>91.2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>339</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6334500</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9">
+        <v>242</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8799800</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>108</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2647100</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>95.3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <v>247</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7417300</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>162.4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>476</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9278100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13">
+        <v>421</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5701200</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>233</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5950800</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>230</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5480800</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+      <sortCondition descending="1" ref="G1:G5"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{469A28A3-DD04-E640-9A0F-478077AFF3F9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -823,7 +1428,7 @@
         <v>4771666</v>
       </c>
       <c r="E7" s="7">
-        <f>ROUND(B7/D7*100000,$B$19)</f>
+        <f t="shared" ref="E7:E15" si="0">ROUND(B7/D7*100000,$B$19)</f>
         <v>4.67</v>
       </c>
       <c r="F7">
@@ -833,7 +1438,7 @@
         <v>4880200</v>
       </c>
       <c r="H7">
-        <f>ROUND(F7/G7*100000,$B$19)</f>
+        <f t="shared" ref="H7:H15" si="1">ROUND(F7/G7*100000,$B$19)</f>
         <v>4.6900000000000004</v>
       </c>
     </row>
@@ -851,7 +1456,7 @@
         <v>6168432</v>
       </c>
       <c r="E8" s="7">
-        <f>ROUND(B8/D8*100000,$B$19)</f>
+        <f t="shared" si="0"/>
         <v>5.33</v>
       </c>
       <c r="F8">
@@ -861,7 +1466,7 @@
         <v>6334500</v>
       </c>
       <c r="H8">
-        <f>ROUND(F8/G8*100000,$B$19)</f>
+        <f t="shared" si="1"/>
         <v>5.35</v>
       </c>
     </row>
@@ -879,7 +1484,7 @@
         <v>8825001</v>
       </c>
       <c r="E9" s="7">
-        <f>ROUND(B9/D9*100000,$B$19)</f>
+        <f t="shared" si="0"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="F9">
@@ -889,7 +1494,7 @@
         <v>8799800</v>
       </c>
       <c r="H9">
-        <f>ROUND(F9/G9*100000,$B$19)</f>
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
@@ -907,7 +1512,7 @@
         <v>2644727</v>
       </c>
       <c r="E10" s="7">
-        <f>ROUND(B10/D10*100000,$B$19)</f>
+        <f t="shared" si="0"/>
         <v>3.48</v>
       </c>
       <c r="F10">
@@ -917,7 +1522,7 @@
         <v>2647100</v>
       </c>
       <c r="H10">
-        <f>ROUND(F10/G10*100000,$B$19)</f>
+        <f t="shared" si="1"/>
         <v>4.08</v>
       </c>
     </row>
@@ -935,7 +1540,7 @@
         <v>7258627</v>
       </c>
       <c r="E11" s="7">
-        <f>ROUND(B11/D11*100000,$B$19)</f>
+        <f t="shared" si="0"/>
         <v>3.32</v>
       </c>
       <c r="F11">
@@ -945,7 +1550,7 @@
         <v>7417300</v>
       </c>
       <c r="H11">
-        <f>ROUND(F11/G11*100000,$B$19)</f>
+        <f t="shared" si="1"/>
         <v>3.33</v>
       </c>
     </row>
@@ -963,7 +1568,7 @@
         <v>9080825</v>
       </c>
       <c r="E12" s="7">
-        <f>ROUND(B12/D12*100000,$B$19)</f>
+        <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
       <c r="F12">
@@ -973,7 +1578,7 @@
         <v>9278100</v>
       </c>
       <c r="H12">
-        <f>ROUND(F12/G12*100000,$B$19)</f>
+        <f t="shared" si="1"/>
         <v>5.13</v>
       </c>
     </row>
@@ -991,7 +1596,7 @@
         <v>5559316</v>
       </c>
       <c r="E13" s="7">
-        <f>ROUND(B13/D13*100000,$B$19)</f>
+        <f t="shared" si="0"/>
         <v>7.46</v>
       </c>
       <c r="F13">
@@ -1001,7 +1606,7 @@
         <v>5701200</v>
       </c>
       <c r="H13">
-        <f>ROUND(F13/G13*100000,$B$19)</f>
+        <f t="shared" si="1"/>
         <v>7.38</v>
       </c>
     </row>
@@ -1019,7 +1624,7 @@
         <v>5860706</v>
       </c>
       <c r="E14" s="7">
-        <f>ROUND(B14/D14*100000,$B$19)</f>
+        <f t="shared" si="0"/>
         <v>3.92</v>
       </c>
       <c r="F14">
@@ -1029,7 +1634,7 @@
         <v>5950800</v>
       </c>
       <c r="H14">
-        <f>ROUND(F14/G14*100000,$B$19)</f>
+        <f t="shared" si="1"/>
         <v>3.92</v>
       </c>
     </row>
@@ -1047,7 +1652,7 @@
         <v>5450130</v>
       </c>
       <c r="E15" s="7">
-        <f>ROUND(B15/D15*100000,$B$19)</f>
+        <f t="shared" si="0"/>
         <v>4.1100000000000003</v>
       </c>
       <c r="F15">
@@ -1057,7 +1662,7 @@
         <v>5480800</v>
       </c>
       <c r="H15">
-        <f>ROUND(F15/G15*100000,$B$19)</f>
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
     </row>
@@ -1230,7 +1835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D21B0C8-75B5-114B-99B2-EF3F32E6F025}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1347,12 +1952,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1F7BBF-D564-004A-950D-A93D4EBB1190}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1527,12 +2132,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9F476B-C83C-FA46-9DDF-FCAC0E511B84}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/data_for_report_2022/table 12 - mus2022_region_name_vs_pop22.xlsx
+++ b/docs/data_for_report_2022/table 12 - mus2022_region_name_vs_pop22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaballatore/Dropbox/DRBX_Docs/Work/Projects/github_projects/mapping-museums/docs/data_for_report_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF625C4-3C53-D44E-BEA9-22D65AEEC73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF2F9A2-FF91-8C47-98F4-8D824E14F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6160" yWindow="2020" windowWidth="18100" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
